--- a/Dictionnaire_MBAM.XLSX
+++ b/Dictionnaire_MBAM.XLSX
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdenis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederiquem.gagnon/Documents/2. M. Sc. - HEC/6. H21/HEC Data Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_AD1250604BB3BBE3C0FB1231F4183AA31CB69B31" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{493794C9-F9E8-461B-8234-ADEF1FF08B2E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D2A702-674F-1E43-8462-30F1395AF9CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19860" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire MBAM_complet" sheetId="1" r:id="rId1"/>
     <sheet name="Dictionnaire MBAM_convertis" sheetId="2" r:id="rId2"/>
     <sheet name="Description campagnes" sheetId="3" r:id="rId3"/>
+    <sheet name="Type de promotion" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Description campagnes'!$A$1:$E$19</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="140">
   <si>
     <t>num_dossier_mbam_coded</t>
   </si>
@@ -399,13 +403,76 @@
   </si>
   <si>
     <t>EblastPromoParis_LeSaviez-vous?#4</t>
+  </si>
+  <si>
+    <t>Type d'abonnement</t>
+  </si>
+  <si>
+    <t>Cadeau</t>
+  </si>
+  <si>
+    <t>Prolongation</t>
+  </si>
+  <si>
+    <t>Rabais_pct</t>
+  </si>
+  <si>
+    <t>Combinaison</t>
+  </si>
+  <si>
+    <t>Rabais_dol</t>
+  </si>
+  <si>
+    <t>Revue</t>
+  </si>
+  <si>
+    <t>Catalogue</t>
+  </si>
+  <si>
+    <t>Parapluie</t>
+  </si>
+  <si>
+    <t>3MBAM</t>
+  </si>
+  <si>
+    <t>3MMFA</t>
+  </si>
+  <si>
+    <t>Type_promo</t>
+  </si>
+  <si>
+    <t>Qte_promo1</t>
+  </si>
+  <si>
+    <t>Qte_promo2</t>
+  </si>
+  <si>
+    <t>1_2ans</t>
+  </si>
+  <si>
+    <t>Detail_promo</t>
+  </si>
+  <si>
+    <t>revue et catalogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code.promo </t>
+  </si>
+  <si>
+    <t>EblastPromoParis_LeSaviez-vous?</t>
+  </si>
+  <si>
+    <t>Pas_promo</t>
+  </si>
+  <si>
+    <t>no_promo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,7 +530,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,8 +555,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -512,11 +591,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -575,6 +665,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,13 +967,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" customWidth="1"/>
-    <col min="2" max="2" width="151.140625" customWidth="1"/>
+    <col min="1" max="1" width="50.5" customWidth="1"/>
+    <col min="2" max="2" width="151.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -876,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -884,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -892,7 +997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -900,7 +1005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -908,7 +1013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -916,7 +1021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -924,7 +1029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
@@ -932,7 +1037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
@@ -940,7 +1045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
@@ -948,7 +1053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
@@ -956,7 +1061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
@@ -964,7 +1069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
@@ -972,7 +1077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
@@ -980,7 +1085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
@@ -988,7 +1093,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
@@ -996,7 +1101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
@@ -1004,7 +1109,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>34</v>
       </c>
@@ -1012,7 +1117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>36</v>
       </c>
@@ -1020,7 +1125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>38</v>
       </c>
@@ -1028,7 +1133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
@@ -1036,7 +1141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>42</v>
       </c>
@@ -1044,7 +1149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>44</v>
       </c>
@@ -1052,7 +1157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>46</v>
       </c>
@@ -1060,7 +1165,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>48</v>
       </c>
@@ -1068,19 +1173,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" ht="11.45" customHeight="1">
+    <row r="28" spans="1:2" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
     </row>
   </sheetData>
@@ -1092,17 +1197,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="94.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="94.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1221,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>51</v>
       </c>
@@ -1130,7 +1235,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="28.5">
+    <row r="3" spans="1:14" ht="31" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>53</v>
       </c>
@@ -1150,7 +1255,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>55</v>
       </c>
@@ -1170,7 +1275,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>57</v>
       </c>
@@ -1190,7 +1295,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>59</v>
       </c>
@@ -1210,7 +1315,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>61</v>
       </c>
@@ -1230,7 +1335,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>63</v>
       </c>
@@ -1250,7 +1355,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -1270,7 +1375,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>67</v>
       </c>
@@ -1290,7 +1395,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>69</v>
       </c>
@@ -1304,7 +1409,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15.6">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1314,7 +1419,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="15.6">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1324,7 +1429,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="15.6">
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1334,7 +1439,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15.6">
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1344,7 +1449,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="15.6">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1357,22 +1462,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.5" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>71</v>
       </c>
@@ -1388,8 +1493,11 @@
       <c r="E1" s="16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="24" t="s">
@@ -1402,7 +1510,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>79</v>
       </c>
@@ -1418,8 +1526,17 @@
       <c r="E3" s="22" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>84</v>
       </c>
@@ -1435,25 +1552,37 @@
       <c r="E4" s="22" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="21" t="s">
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="29" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>88</v>
       </c>
@@ -1469,8 +1598,14 @@
       <c r="E6" s="22" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>92</v>
       </c>
@@ -1486,8 +1621,17 @@
       <c r="E7" s="22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>96</v>
       </c>
@@ -1503,8 +1647,14 @@
       <c r="E8" s="22" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>99</v>
       </c>
@@ -1520,8 +1670,14 @@
       <c r="E9" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>101</v>
       </c>
@@ -1537,8 +1693,14 @@
       <c r="E10" s="22" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>103</v>
       </c>
@@ -1554,8 +1716,14 @@
       <c r="E11" s="22" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="55.15">
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>105</v>
       </c>
@@ -1571,8 +1739,14 @@
       <c r="E12" s="17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>87</v>
       </c>
@@ -1588,8 +1762,14 @@
       <c r="E13" s="22" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>108</v>
       </c>
@@ -1605,8 +1785,14 @@
       <c r="E14" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>110</v>
       </c>
@@ -1622,8 +1808,14 @@
       <c r="E15" s="22" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="55.15">
+      <c r="F15" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>114</v>
       </c>
@@ -1639,8 +1831,14 @@
       <c r="E16" s="17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="55.15">
+      <c r="F16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>116</v>
       </c>
@@ -1656,8 +1854,14 @@
       <c r="E17" s="17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="55.15">
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>117</v>
       </c>
@@ -1673,8 +1877,14 @@
       <c r="E18" s="17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="55.15">
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>118</v>
       </c>
@@ -1690,10 +1900,354 @@
       <c r="E19" s="17" t="s">
         <v>107</v>
       </c>
+      <c r="F19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E19" xr:uid="{33758C30-FFCA-DF40-AAFE-A381B6946B15}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0181DE67-A15B-A645-859A-BCDD7C24EDF6}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="20">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="30">
+        <v>2</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="20">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="20">
+        <v>0</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1930,13 +2484,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BF83AE1-916D-495E-932C-95C0095A3BA3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BF83AE1-916D-495E-932C-95C0095A3BA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{861E6EC0-CB21-46D9-ABE0-C03366137D6E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{861E6EC0-CB21-46D9-ABE0-C03366137D6E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D27041B6-F8AB-4DD7-B87E-73E0C5AFD3A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D27041B6-F8AB-4DD7-B87E-73E0C5AFD3A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="15dd9326-9775-486c-ae86-a2c3f632e3e5"/>
+    <ds:schemaRef ds:uri="1e5be0cd-ad77-46a4-8c2b-ea31a4516aba"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Dictionnaire_MBAM.XLSX
+++ b/Dictionnaire_MBAM.XLSX
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederiquem.gagnon/Documents/2. M. Sc. - HEC/6. H21/HEC Data Challenge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf31d5e4fb15e25b/1_Ecole/HEC/Msc/HEC DATA/MBAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D2A702-674F-1E43-8462-30F1395AF9CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{93D2A702-674F-1E43-8462-30F1395AF9CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{84D59C50-0CF4-4A11-A15C-B37ECCD403E0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19860" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire MBAM_complet" sheetId="1" r:id="rId1"/>
     <sheet name="Dictionnaire MBAM_convertis" sheetId="2" r:id="rId2"/>
     <sheet name="Description campagnes" sheetId="3" r:id="rId3"/>
     <sheet name="Type de promotion" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Description campagnes'!$A$1:$E$19</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="140">
   <si>
     <t>num_dossier_mbam_coded</t>
   </si>
@@ -967,13 +968,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5" customWidth="1"/>
-    <col min="2" max="2" width="151.1640625" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="151.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -981,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -989,7 +990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -997,7 +998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>34</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>36</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>38</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>42</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>44</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>46</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>48</v>
       </c>
@@ -1173,19 +1174,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
     </row>
   </sheetData>
@@ -1201,13 +1202,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="94.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="94.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1222,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>51</v>
       </c>
@@ -1235,7 +1236,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>53</v>
       </c>
@@ -1255,7 +1256,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>55</v>
       </c>
@@ -1275,7 +1276,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>57</v>
       </c>
@@ -1295,7 +1296,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>59</v>
       </c>
@@ -1315,7 +1316,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>61</v>
       </c>
@@ -1335,7 +1336,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>63</v>
       </c>
@@ -1355,7 +1356,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -1375,7 +1376,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>67</v>
       </c>
@@ -1395,7 +1396,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>69</v>
       </c>
@@ -1409,7 +1410,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1419,7 +1420,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1429,7 +1430,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1439,7 +1440,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1449,7 +1450,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1468,16 +1469,16 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="58.5" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>71</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="24" t="s">
@@ -1510,7 +1511,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>79</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>84</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>87</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>88</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>92</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>96</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>99</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>101</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>103</v>
       </c>
@@ -1723,7 +1724,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>105</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>87</v>
       </c>
@@ -1769,7 +1770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>108</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>110</v>
       </c>
@@ -1815,7 +1816,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>114</v>
       </c>
@@ -1838,7 +1839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>116</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>117</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>118</v>
       </c>
@@ -1918,22 +1919,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0181DE67-A15B-A645-859A-BCDD7C24EDF6}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>79</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>84</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>88</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>92</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>96</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>96</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>99</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>101</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>101</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>103</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>103</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>105</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>87</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>108</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>110</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>137</v>
       </c>
@@ -2238,7 +2239,322 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2C91E4-41F7-4453-87B8-C57C06C028F5}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="20">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="20">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="20">
+        <v>0</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>138</v>
       </c>
@@ -2252,18 +2568,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2484,18 +2800,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BF83AE1-916D-495E-932C-95C0095A3BA3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{861E6EC0-CB21-46D9-ABE0-C03366137D6E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{861E6EC0-CB21-46D9-ABE0-C03366137D6E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BF83AE1-916D-495E-932C-95C0095A3BA3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
